--- a/Prospects/Luminor/Luminor Demo Workbook v0.2.xlsx
+++ b/Prospects/Luminor/Luminor Demo Workbook v0.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="7200" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="7200" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0. Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="4. Post Trade - Back Office" sheetId="5" r:id="rId5"/>
     <sheet name="5. Post Trade - Cust Reporting" sheetId="6" r:id="rId6"/>
     <sheet name="6. Customer Facing Portal" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Dealers'!$A$3:$V$69</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="510">
   <si>
     <t>–</t>
   </si>
@@ -1240,9 +1239,6 @@
     <t>Limits</t>
   </si>
   <si>
-    <t>Risk</t>
-  </si>
-  <si>
     <t>Positions (Cashlows etc…)</t>
   </si>
   <si>
@@ -1599,18 +1595,6 @@
   </si>
   <si>
     <t>Limits - Realtime</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Dealer</t>
-  </si>
-  <si>
-    <t>Salesdesk</t>
-  </si>
-  <si>
-    <t>BackOffice</t>
   </si>
   <si>
     <t>Demo Order</t>
@@ -1621,8 +1605,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="h&quot;hr&quot;\ m&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="m&quot;m&quot;\ s&quot;s&quot;"/>
+    <numFmt numFmtId="164" formatCode="h&quot;hr&quot;\ m&quot;m&quot;"/>
+    <numFmt numFmtId="165" formatCode="m&quot;m&quot;\ s&quot;s&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1896,7 +1880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1906,7 +1890,7 @@
     <xf numFmtId="20" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1922,7 +1906,7 @@
     <xf numFmtId="20" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1939,7 +1923,7 @@
     <xf numFmtId="20" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2479,7 +2463,7 @@
   <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O3" s="30" t="s">
         <v>362</v>
@@ -2637,13 +2621,13 @@
       </c>
       <c r="R3" s="25"/>
       <c r="S3" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="T3" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="T3" s="25" t="s">
-        <v>437</v>
-      </c>
       <c r="U3" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V3" s="90"/>
       <c r="W3" s="90"/>
@@ -2726,7 +2710,7 @@
         <v>Introduction</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
@@ -2814,7 +2798,7 @@
         <v>Bank's Dealers activities + MM products (siena Treasury)</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O5" s="22" t="str">
         <f ca="1">'1. Dealers'!A1</f>
@@ -2880,7 +2864,7 @@
         <v>Credit Risk Management Module</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O6" s="26" t="s">
         <v>20</v>
@@ -2899,7 +2883,7 @@
         <v>2.2569444444444448E-2</v>
       </c>
       <c r="T6" s="24" t="str">
-        <f t="shared" ref="T6:T14" si="6">IF(S6&lt;&gt;J6,"ERROR","OK")</f>
+        <f t="shared" ref="T6:T13" si="6">IF(S6&lt;&gt;J6,"ERROR","OK")</f>
         <v>ERROR</v>
       </c>
       <c r="U6" s="35">
@@ -2947,7 +2931,7 @@
         <v>Coffee break</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
@@ -3035,7 +3019,7 @@
         <v>Post-trade regulatory reporting (MIFID II (APA), EMIR etc.)</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O8" s="26" t="s">
         <v>21</v>
@@ -3102,7 +3086,7 @@
         <v>Lunch</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="14"/>
@@ -3190,7 +3174,7 @@
         <v>Post-trade Back-Office (BO) related activities</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O10" s="26" t="s">
         <v>22</v>
@@ -3255,7 +3239,7 @@
         <v>Post-trade customer reporting (MIFID II) and notifications</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O11" s="26" t="s">
         <v>23</v>
@@ -3322,7 +3306,7 @@
         <v>Coffee break</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
@@ -3410,7 +3394,7 @@
         <v>Client facing portal (siena eTrader)</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O13" s="26" t="s">
         <v>24</v>
@@ -3477,7 +3461,7 @@
         <v>Questions and answers.</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="27"/>
@@ -3662,12 +3646,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J62" sqref="A62:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3718,7 @@
       <c r="G2" s="40"/>
       <c r="H2" s="81"/>
       <c r="I2" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J2" s="41">
         <f>SUM(J4:J69)</f>
@@ -3768,13 +3753,13 @@
         <v>365</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H3" s="82" t="s">
         <v>363</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>364</v>
@@ -3785,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
@@ -3795,7 +3780,7 @@
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="79" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I4" s="79"/>
       <c r="J4" s="50">
@@ -3809,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -3819,7 +3804,7 @@
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="79" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I5" s="79"/>
       <c r="J5" s="50">
@@ -3849,7 +3834,7 @@
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I6" s="107" t="s">
         <v>29</v>
@@ -3879,7 +3864,7 @@
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I7" s="107"/>
       <c r="J7" s="50">
@@ -3907,7 +3892,7 @@
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I8" s="80"/>
       <c r="J8" s="50">
@@ -3935,7 +3920,7 @@
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="50">
@@ -3963,7 +3948,7 @@
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I10" s="80"/>
       <c r="J10" s="50"/>
@@ -3989,7 +3974,7 @@
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="50">
@@ -4048,7 +4033,7 @@
         <v>382</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J13" s="50">
         <v>2.0833333333333333E-3</v>
@@ -4075,10 +4060,10 @@
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I14" s="80" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J14" s="50">
         <v>1.736111111111111E-3</v>
@@ -4159,7 +4144,7 @@
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I17" s="80"/>
       <c r="J17" s="50">
@@ -4187,7 +4172,7 @@
       </c>
       <c r="G18" s="55"/>
       <c r="H18" s="80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I18" s="80"/>
       <c r="J18" s="50">
@@ -4215,7 +4200,7 @@
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I19" s="80"/>
       <c r="J19" s="50">
@@ -4243,7 +4228,7 @@
       </c>
       <c r="G20" s="55"/>
       <c r="H20" s="80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I20" s="80"/>
       <c r="J20" s="50">
@@ -4325,7 +4310,7 @@
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="80" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="50">
@@ -4402,7 +4387,7 @@
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="80" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I26" s="80"/>
       <c r="J26" s="50">
@@ -4484,7 +4469,7 @@
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I29" s="80"/>
       <c r="J29" s="50">
@@ -4512,10 +4497,10 @@
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I30" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J30" s="50"/>
     </row>
@@ -4540,7 +4525,7 @@
       </c>
       <c r="G31" s="55"/>
       <c r="H31" s="80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I31" s="80"/>
       <c r="J31" s="50"/>
@@ -4566,7 +4551,7 @@
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I32" s="80"/>
       <c r="J32" s="50"/>
@@ -4592,7 +4577,7 @@
       </c>
       <c r="G33" s="55"/>
       <c r="H33" s="80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I33" s="80"/>
       <c r="J33" s="50"/>
@@ -4618,7 +4603,7 @@
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I34" s="80"/>
       <c r="J34" s="50"/>
@@ -4644,7 +4629,7 @@
       </c>
       <c r="G35" s="55"/>
       <c r="H35" s="80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I35" s="80"/>
       <c r="J35" s="50"/>
@@ -4670,7 +4655,7 @@
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I36" s="80"/>
       <c r="J36" s="50"/>
@@ -4696,7 +4681,7 @@
       </c>
       <c r="G37" s="55"/>
       <c r="H37" s="80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I37" s="80"/>
       <c r="J37" s="50"/>
@@ -4722,7 +4707,7 @@
       </c>
       <c r="G38" s="55"/>
       <c r="H38" s="80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I38" s="80"/>
       <c r="J38" s="50"/>
@@ -4776,7 +4761,7 @@
       </c>
       <c r="G40" s="55"/>
       <c r="H40" s="80" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I40" s="80"/>
       <c r="J40" s="50">
@@ -4828,10 +4813,10 @@
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
       <c r="H42" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I42" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J42" s="50"/>
     </row>
@@ -4856,7 +4841,7 @@
       </c>
       <c r="G43" s="55"/>
       <c r="H43" s="80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I43" s="80"/>
       <c r="J43" s="50"/>
@@ -4882,7 +4867,7 @@
       </c>
       <c r="G44" s="55"/>
       <c r="H44" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I44" s="80"/>
       <c r="J44" s="50"/>
@@ -4934,7 +4919,7 @@
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I46" s="80"/>
       <c r="J46" s="50">
@@ -4962,7 +4947,7 @@
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I47" s="80"/>
       <c r="J47" s="50"/>
@@ -4988,7 +4973,7 @@
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I48" s="80"/>
       <c r="J48" s="50"/>
@@ -5014,7 +4999,7 @@
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I49" s="80"/>
       <c r="J49" s="50"/>
@@ -5094,10 +5079,10 @@
       </c>
       <c r="G52" s="55"/>
       <c r="H52" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I52" s="80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J52" s="50"/>
     </row>
@@ -5122,10 +5107,10 @@
       </c>
       <c r="G53" s="55"/>
       <c r="H53" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J53" s="50"/>
     </row>
@@ -5150,7 +5135,7 @@
       </c>
       <c r="G54" s="55"/>
       <c r="H54" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I54" s="80"/>
       <c r="J54" s="50">
@@ -5178,7 +5163,7 @@
       </c>
       <c r="G55" s="55"/>
       <c r="H55" s="80" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I55" s="80"/>
       <c r="J55" s="50">
@@ -5206,7 +5191,7 @@
       </c>
       <c r="G56" s="55"/>
       <c r="H56" s="80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I56" s="80"/>
       <c r="J56" s="50"/>
@@ -5232,7 +5217,7 @@
       </c>
       <c r="G57" s="55"/>
       <c r="H57" s="80" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I57" s="80"/>
       <c r="J57" s="50">
@@ -5260,7 +5245,7 @@
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I58" s="80"/>
       <c r="J58" s="50"/>
@@ -5286,7 +5271,7 @@
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I59" s="80"/>
       <c r="J59" s="50"/>
@@ -5312,7 +5297,7 @@
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I60" s="80"/>
       <c r="J60" s="50"/>
@@ -5338,7 +5323,7 @@
       </c>
       <c r="G61" s="55"/>
       <c r="H61" s="80" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I61" s="80"/>
       <c r="J61" s="50">
@@ -5366,7 +5351,7 @@
       </c>
       <c r="G62" s="55"/>
       <c r="H62" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I62" s="80"/>
       <c r="J62" s="50"/>
@@ -5560,7 +5545,7 @@
       </c>
       <c r="G69" s="55"/>
       <c r="H69" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I69" s="80"/>
       <c r="J69" s="50"/>
@@ -5575,12 +5560,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5691,7 +5677,7 @@
         <v>363</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>364</v>
@@ -5702,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -5726,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -5735,7 +5721,7 @@
         <v>368</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="50">
@@ -5764,10 +5750,10 @@
         <v>368</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="50">
         <v>1.736111111111111E-3</v>
@@ -5793,7 +5779,7 @@
         <v>368</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="66"/>
@@ -5818,7 +5804,7 @@
         <v>368</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="66"/>
@@ -5843,10 +5829,10 @@
         <v>368</v>
       </c>
       <c r="G9" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I9" s="66"/>
     </row>
@@ -5870,7 +5856,7 @@
         <v>366</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="66"/>
@@ -5895,7 +5881,7 @@
         <v>368</v>
       </c>
       <c r="G11" s="100" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="66"/>
@@ -5920,7 +5906,7 @@
         <v>368</v>
       </c>
       <c r="G12" s="100" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="50">
@@ -5947,7 +5933,7 @@
         <v>368</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="66"/>
@@ -5970,7 +5956,7 @@
         <v>368</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="66"/>
@@ -5995,7 +5981,7 @@
         <v>368</v>
       </c>
       <c r="G15" s="100" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="66"/>
@@ -6020,7 +6006,7 @@
         <v>367</v>
       </c>
       <c r="G16" s="100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="66"/>
@@ -6045,7 +6031,7 @@
         <v>368</v>
       </c>
       <c r="G17" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="66"/>
@@ -6070,7 +6056,7 @@
         <v>368</v>
       </c>
       <c r="G18" s="100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="67"/>
@@ -6095,7 +6081,7 @@
         <v>368</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="67">
@@ -6122,7 +6108,7 @@
         <v>367</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="66"/>
@@ -6147,7 +6133,7 @@
         <v>368</v>
       </c>
       <c r="G21" s="100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="68">
@@ -6174,7 +6160,7 @@
         <v>368</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="68">
@@ -6201,7 +6187,7 @@
         <v>368</v>
       </c>
       <c r="G23" s="100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="66"/>
@@ -6253,7 +6239,7 @@
         <v>367</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="66"/>
@@ -6278,7 +6264,7 @@
         <v>367</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="67">
@@ -6305,7 +6291,7 @@
         <v>368</v>
       </c>
       <c r="G27" s="100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="66"/>
@@ -6323,12 +6309,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="I13" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6422,7 @@
         <v>363</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>364</v>
@@ -6446,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -6455,7 +6442,7 @@
         <v>367</v>
       </c>
       <c r="G4" s="103" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="103"/>
       <c r="I4" s="50">
@@ -6469,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -6478,7 +6465,7 @@
         <v>368</v>
       </c>
       <c r="G5" s="103" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H5" s="103"/>
       <c r="I5" s="50">
@@ -6507,7 +6494,7 @@
         <v>366</v>
       </c>
       <c r="G6" s="104" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H6" s="104"/>
       <c r="I6" s="50">
@@ -6534,10 +6521,10 @@
         <v>368</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H7" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I7" s="50">
         <v>1.736111111111111E-3</v>
@@ -6563,10 +6550,10 @@
         <v>368</v>
       </c>
       <c r="G8" s="104" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H8" s="104" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I8" s="50">
         <v>3.472222222222222E-3</v>
@@ -6592,10 +6579,10 @@
         <v>367</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H9" s="104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I9" s="50">
         <v>3.472222222222222E-3</v>
@@ -6621,7 +6608,7 @@
         <v>368</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H10" s="104"/>
       <c r="I10" s="50">
@@ -6673,10 +6660,10 @@
         <v>368</v>
       </c>
       <c r="G12" s="104" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" s="104" t="s">
         <v>411</v>
-      </c>
-      <c r="H12" s="104" t="s">
-        <v>412</v>
       </c>
       <c r="I12" s="50">
         <v>3.472222222222222E-3</v>
@@ -6702,7 +6689,7 @@
         <v>368</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H13" s="104"/>
       <c r="I13" s="50">
@@ -6718,14 +6705,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,18 +6819,18 @@
         <v>363</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -6852,7 +6839,7 @@
         <v>367</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="50">
@@ -6861,12 +6848,12 @@
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
     </row>
-    <row r="5" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -6875,7 +6862,7 @@
         <v>368</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="50">
@@ -6904,7 +6891,7 @@
         <v>368</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H6" s="65"/>
       <c r="I6" s="50">
@@ -6931,10 +6918,10 @@
         <v>368</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I7" s="68">
         <v>1.736111111111111E-3</v>
@@ -6960,14 +6947,14 @@
         <v>368</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="67">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>7</v>
       </c>
@@ -6987,7 +6974,7 @@
         <v>367</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="66"/>
@@ -7012,10 +6999,10 @@
         <v>368</v>
       </c>
       <c r="G10" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>419</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>420</v>
       </c>
       <c r="I10" s="67">
         <v>3.472222222222222E-3</v>
@@ -7041,7 +7028,7 @@
         <v>368</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="67">
@@ -7068,7 +7055,7 @@
         <v>368</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="67">
@@ -7095,14 +7082,14 @@
         <v>368</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="67">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>7</v>
       </c>
@@ -7122,10 +7109,10 @@
         <v>367</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I14" s="67">
         <v>3.472222222222222E-3</v>
@@ -7151,7 +7138,7 @@
         <v>368</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="68">
@@ -7178,7 +7165,7 @@
         <v>367</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="66"/>
@@ -7203,7 +7190,7 @@
         <v>368</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="68">
@@ -7230,14 +7217,14 @@
         <v>368</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="68">
         <v>1.736111111111111E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>7</v>
       </c>
@@ -7257,16 +7244,16 @@
         <v>368</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I19" s="68">
         <v>1.736111111111111E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>7</v>
       </c>
@@ -7286,12 +7273,12 @@
         <v>367</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="66"/>
     </row>
-    <row r="21" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>7</v>
       </c>
@@ -7311,14 +7298,14 @@
         <v>367</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="67">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>7</v>
       </c>
@@ -7338,14 +7325,14 @@
         <v>368</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="68">
         <v>1.736111111111111E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>7</v>
       </c>
@@ -7365,12 +7352,12 @@
         <v>367</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="66"/>
     </row>
-    <row r="24" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>7</v>
       </c>
@@ -7390,12 +7377,12 @@
         <v>367</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="66"/>
     </row>
-    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>7</v>
       </c>
@@ -7415,12 +7402,12 @@
         <v>367</v>
       </c>
       <c r="G25" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="66"/>
     </row>
-    <row r="26" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>7</v>
       </c>
@@ -7440,12 +7427,12 @@
         <v>367</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="66"/>
     </row>
-    <row r="27" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>7</v>
       </c>
@@ -7465,12 +7452,12 @@
         <v>367</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="66"/>
     </row>
-    <row r="28" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>7</v>
       </c>
@@ -7490,12 +7477,12 @@
         <v>367</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="66"/>
     </row>
-    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
         <v>7</v>
       </c>
@@ -7515,12 +7502,12 @@
         <v>367</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H29" s="65"/>
       <c r="I29" s="66"/>
     </row>
-    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
         <v>7</v>
       </c>
@@ -7540,12 +7527,12 @@
         <v>367</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="66"/>
     </row>
-    <row r="31" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
         <v>7</v>
       </c>
@@ -7565,12 +7552,12 @@
         <v>367</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H31" s="65"/>
       <c r="I31" s="66"/>
     </row>
-    <row r="32" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>7</v>
       </c>
@@ -7590,7 +7577,7 @@
         <v>367</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H32" s="65"/>
       <c r="I32" s="66"/>
@@ -7615,7 +7602,7 @@
         <v>368</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="67">
@@ -7623,7 +7610,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:T33"/>
+  <autoFilter ref="A3:T33">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="YES"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7631,13 +7624,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
+    <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I23" sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,18 +7737,18 @@
         <v>363</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -7763,7 +7757,7 @@
         <v>367</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="50">
@@ -7772,12 +7766,12 @@
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
     </row>
-    <row r="5" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -7786,7 +7780,7 @@
         <v>368</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="50">
@@ -7968,7 +7962,7 @@
       <c r="H12" s="65"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>358</v>
       </c>
@@ -7995,7 +7989,7 @@
         <v>1.736111111111111E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>358</v>
       </c>
@@ -8020,7 +8014,7 @@
       <c r="H14" s="65"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>358</v>
       </c>
@@ -8097,7 +8091,7 @@
       <c r="H17" s="65"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>358</v>
       </c>
@@ -8124,7 +8118,7 @@
         <v>1.736111111111111E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>358</v>
       </c>
@@ -8149,7 +8143,7 @@
       <c r="H19" s="65"/>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>358</v>
       </c>
@@ -8252,7 +8246,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U23"/>
+  <autoFilter ref="A3:U23">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="YES"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8261,12 +8261,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8372,7 +8373,7 @@
         <v>363</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>364</v>
@@ -8383,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="75"/>
@@ -8392,7 +8393,7 @@
         <v>367</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="50">
@@ -8406,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
@@ -8415,7 +8416,7 @@
         <v>368</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="50">
@@ -8444,7 +8445,7 @@
         <v>367</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H6" s="65"/>
       <c r="I6" s="50">
@@ -8519,7 +8520,7 @@
         <v>366</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="50">
@@ -8593,7 +8594,7 @@
         <v>368</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="76">
@@ -8645,10 +8646,10 @@
         <v>368</v>
       </c>
       <c r="G14" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" s="65" t="s">
         <v>467</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -8721,7 +8722,7 @@
         <v>368</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="76">
@@ -8748,7 +8749,7 @@
         <v>368</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="76">
@@ -8901,10 +8902,10 @@
         <v>367</v>
       </c>
       <c r="G24" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="H24" s="65" t="s">
         <v>459</v>
-      </c>
-      <c r="H24" s="65" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -8927,10 +8928,10 @@
         <v>367</v>
       </c>
       <c r="G25" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="65" t="s">
         <v>459</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -8953,7 +8954,7 @@
         <v>368</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="76"/>
@@ -8978,7 +8979,7 @@
         <v>368</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="76">
@@ -9005,7 +9006,7 @@
         <v>368</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="76"/>
@@ -9054,7 +9055,7 @@
         <v>368</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="76">
@@ -9129,7 +9130,7 @@
         <v>368</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="76">
@@ -9156,7 +9157,7 @@
         <v>368</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H34" s="65"/>
     </row>
@@ -9204,7 +9205,7 @@
         <v>367</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H36" s="65"/>
     </row>
@@ -9228,7 +9229,7 @@
         <v>368</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H37" s="65"/>
       <c r="I37" s="76">
@@ -9255,7 +9256,7 @@
         <v>368</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H38" s="65"/>
       <c r="I38" s="76">
@@ -9303,7 +9304,7 @@
         <v>368</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H40" s="65"/>
       <c r="I40" s="76">
@@ -9330,7 +9331,7 @@
         <v>367</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H41" s="65"/>
       <c r="I41" s="78">
@@ -9357,7 +9358,7 @@
         <v>368</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H42" s="65"/>
       <c r="I42" s="76">
@@ -9369,42 +9370,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>